--- a/pred_ohlcv/54_21/2019-10-17 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 ORBS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-373877.3109863247</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-373826.3109863247</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-373826.3109863247</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-373826.3109863247</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-373815.3109863247</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-373815.3109863247</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-926815.577786325</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1543650.020886325</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1513575.230986325</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1513575.230986325</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1513575.230986325</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1075752.91694974</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1075752.91694974</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1075752.91694974</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1275752.00164974</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1275741.00164974</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1287419.346429905</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1286039.833829905</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1326551.390929905</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1265435.822629905</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1263869.444529905</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-653672.1051299048</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-650888.4664299048</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-650770.4664299048</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-680219.9582299048</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-668255.1618299048</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-17 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 ORBS ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>-962387.973986325</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-988937.305586325</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1037904.838586325</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-926815.577786325</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1543650.020886325</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1513575.230986325</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1513575.230986325</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1513575.230986325</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1075752.91694974</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1075752.91694974</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1075752.91694974</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1275752.00164974</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1275741.00164974</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1250765.023929905</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1286121.495829905</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1287419.346429905</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1286039.833829905</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1329051.390929905</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1329051.390929905</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1326551.390929905</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1326561.390929905</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1265425.822629905</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1265425.822629905</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1265435.822629905</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1263870.444529905</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1263880.444529905</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1263879.444529905</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1257309.638029905</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1257309.638029905</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1257319.638029905</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1209172.798429905</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1212540.374829905</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1205441.999829905</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1205451.999829905</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1155451.999829905</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1155283.824829905</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1163427.536929905</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1163172.120329905</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1163192.120329905</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-997959.9706299047</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-833264.7512299046</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-632567.8019299047</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-653672.1051299048</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-650888.4664299048</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-650770.4664299048</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-650770.4664299048</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-680219.9582299048</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-668255.1618299048</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
